--- a/tests/models/integrated/1_coupled_model/sets.xlsx
+++ b/tests/models/integrated/1_coupled_model/sets.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\integration\models\5 - coupled_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\integrated\1_coupled_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7BF28B-42EB-4ED1-84E7-033C318FB245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76AD0E7-58D8-489E-993E-9145437A92DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35630" yWindow="470" windowWidth="23100" windowHeight="15370" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28200" yWindow="3880" windowWidth="28800" windowHeight="15370" tabRatio="944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_set_PRODUCTS" sheetId="1" r:id="rId1"/>
-    <sheet name="_set_PRODUCT_DATA" sheetId="2" r:id="rId2"/>
-    <sheet name="_set_RESOURCES" sheetId="3" r:id="rId3"/>
+    <sheet name="_set_SCENARIOS" sheetId="4" r:id="rId1"/>
+    <sheet name="_set_PRODUCTS" sheetId="1" r:id="rId2"/>
+    <sheet name="_set_PRODUCT_DATA" sheetId="2" r:id="rId3"/>
+    <sheet name="_set_RESOURCES" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>p_Names</t>
   </si>
@@ -61,6 +62,18 @@
   </si>
   <si>
     <t>learning_rate</t>
+  </si>
+  <si>
+    <t>s_Names</t>
+  </si>
+  <si>
+    <t>low energy</t>
+  </si>
+  <si>
+    <t>middle energy</t>
+  </si>
+  <si>
+    <t>high energy</t>
   </si>
 </sst>
 </file>
@@ -423,11 +436,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829A32C0-81BF-4F56-9551-5093E05B8471}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,11 +500,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -503,12 +551,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tests/models/integrated/1_coupled_model/sets.xlsx
+++ b/tests/models/integrated/1_coupled_model/sets.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\integrated\1_coupled_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76AD0E7-58D8-489E-993E-9145437A92DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4C299-2A66-40D8-AC59-122750375A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28200" yWindow="3880" windowWidth="28800" windowHeight="15370" tabRatio="944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19290" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_set_SCENARIOS" sheetId="4" r:id="rId1"/>
-    <sheet name="_set_PRODUCTS" sheetId="1" r:id="rId2"/>
-    <sheet name="_set_PRODUCT_DATA" sheetId="2" r:id="rId3"/>
-    <sheet name="_set_RESOURCES" sheetId="3" r:id="rId4"/>
+    <sheet name="_set_RESOURCES" sheetId="1" r:id="rId1"/>
+    <sheet name="_set_PRODUCTS" sheetId="2" r:id="rId2"/>
+    <sheet name="_set_PRODUCT_DATA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>r_Names</t>
+  </si>
   <si>
     <t>p_Names</t>
   </si>
@@ -34,7 +36,13 @@
     <t>pd_Category</t>
   </si>
   <si>
-    <t>r_Names</t>
+    <t>low energy</t>
+  </si>
+  <si>
+    <t>high energy</t>
+  </si>
+  <si>
+    <t>avg energy</t>
   </si>
   <si>
     <t>product 1</t>
@@ -43,37 +51,22 @@
     <t>product 2</t>
   </si>
   <si>
+    <t>unit energy use, initial</t>
+  </si>
+  <si>
+    <t>energy_use_0</t>
+  </si>
+  <si>
     <t>unit profit</t>
   </si>
   <si>
     <t>profit</t>
   </si>
   <si>
-    <t>energy availability</t>
-  </si>
-  <si>
-    <t>unit energy use, initial</t>
-  </si>
-  <si>
-    <t>energy_use_0</t>
-  </si>
-  <si>
     <t>learning rate</t>
   </si>
   <si>
     <t>learning_rate</t>
-  </si>
-  <si>
-    <t>s_Names</t>
-  </si>
-  <si>
-    <t>low energy</t>
-  </si>
-  <si>
-    <t>middle energy</t>
-  </si>
-  <si>
-    <t>high energy</t>
   </si>
 </sst>
 </file>
@@ -92,7 +85,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,46 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829A32C0-81BF-4F56-9551-5093E05B8471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,6 +449,11 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -500,26 +462,56 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -532,46 +524,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/models/integrated/1_coupled_model/sets.xlsx
+++ b/tests/models/integrated/1_coupled_model/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\integrated\1_coupled_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4C299-2A66-40D8-AC59-122750375A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C03F03-3BF8-4C9E-8F3F-7D536CBB7A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2350" yWindow="2250" windowWidth="14760" windowHeight="15370" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_RESOURCES" sheetId="1" r:id="rId1"/>
@@ -22,27 +22,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>r_Names</t>
-  </si>
-  <si>
-    <t>p_Names</t>
-  </si>
-  <si>
-    <t>pd_Names</t>
-  </si>
-  <si>
-    <t>pd_Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>resources_Name</t>
+  </si>
+  <si>
+    <t>products_Name</t>
+  </si>
+  <si>
+    <t>products_Aggregation</t>
+  </si>
+  <si>
+    <t>product_data_Name</t>
+  </si>
+  <si>
+    <t>product_data_category</t>
+  </si>
+  <si>
+    <t>product_data_Aggregation</t>
   </si>
   <si>
     <t>low energy</t>
   </si>
   <si>
+    <t>avg energy</t>
+  </si>
+  <si>
     <t>high energy</t>
-  </si>
-  <si>
-    <t>avg energy</t>
   </si>
   <si>
     <t>product 1</t>
@@ -432,7 +438,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,17 +450,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -472,19 +478,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -494,48 +503,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
